--- a/datasets/itpeu_spd/evaluations/llamaindex/data/ITPEU_SPD_S004_00_GM_command-r_EM_embed-english-v3.0_C_512_K_3_W_0.5_0.5_RR_reciprocal_rerank_2024-04-12.xlsx
+++ b/datasets/itpeu_spd/evaluations/llamaindex/data/ITPEU_SPD_S004_00_GM_command-r_EM_embed-english-v3.0_C_512_K_3_W_0.5_0.5_RR_reciprocal_rerank_2024-04-12.xlsx
@@ -555,15 +555,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>According to the information provided, a "Covered Family Member" includes any children of an employee who are incapable of self-support due to physical or developmental disabilities, and who are dependent on the employee for support. This definition applies to children up to the age of 26, however, there is an exception for those who became covered before turning 26, and their incapacity began before this milestone. 
-Since your daughter is 28, she wouldn't be considered a "Covered Family Member" based on the information provided.</t>
+          <t>According to the information provided, your disabled daughter would only be covered if she is under the age of 26. Coverage of a disabled child over 26 only continues if they are found to still be totally permanently disabled, and proof of this may be required by the Board of Trustees.</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -639,14 +638,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yes, treatment for lymphoma is covered. According to the information provided, both Hodgkin's lymphoma and non-Hodgkin's lymphoma are eligible for coverage. Chemotherapy and related courses of treatment for transplants supporting the lymphoma treatment are also included. However, the treatment must be medically appropriate and meet the criteria established by the Plan.</t>
+          <t>Yes, treatment for some types of lymphoma appears to be covered. According to the information provided, Hodgkin's lymphoma and Non-Hodgkin's lymphoma are both eligible for coverage if they fall into specific stages. Additionally, lymphoma is also covered in the context of homogenic/allogenic or syngeneic hematopoietic stem cell transplants, provided certain conditions are met.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -722,11 +721,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Yes. Immunizations for children are covered by the Plan. This includes the flu vaccine.</t>
+          <t>According to the ITPEU Health and Welfare Plan, immunizations such as the flu vaccine are covered. Under the 'Child Preventive Care' section for babies and children up to 18 years old, it lists immunizations as part of the coverage. Although it doesn't specifically mention the flu vaccine, it does list Influenza (flu) under the given immunizations.</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -805,14 +804,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Home dialysis treatment is not covered in your plan. According to the information provided, dialysis treatment and the purchase or rental of dialysis equipment are excluded.</t>
+          <t>Home dialysis treatment is not covered in your plan. Both the rental and purchase of dialysis equipment are listed among the plan's exclusions.</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -888,14 +887,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>According to the ITPEU Health and Welfare Plan, a reduction in weekly work hours to a lower Benefit Classification Level will result in a loss of eligibility for medical, vision and dental care benefits. Your family and you may maintain these benefits at your own expense, but they will be at the Benefit Classification Level corresponding to your new work schedule.</t>
+          <t>According to the ITPEU Health and Welfare Plan, a reduction in an employee's weekly work schedule resulting in a drop to a lower Benefit Classification Level would mean that the employee and their Covered Family Members can maintain their medical, vision, dental and prescription drug benefits at the Benefit Classification Level they held previously. So, if your work schedule has changed and you're now working 10 hours less per week and that has resulted in a drop to a lower Benefit Classification Level, your family's coverage may change. You and your family members can continue to maintain your benefits at the previous level, but you would have to expense them.</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -971,14 +970,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Although the plan refers to mental health disorders, it appears that treatment for mental illness is not covered. According to the information given, mental illness including drug addiction, chronic brain syndromes, and alcoholism are explicitly excluded. The only provision for coverage is when specific medical conditions require care in a skilled nursing facility.</t>
+          <t>According to the defined terms in the provided context, the plan does not cover treatment for mental illness.
+The term "Mental Health Disorder" includes mental disorders, mental illnesses, and psychiatric conditions but specifically excludes any conditions related to drug, alcohol, or chemical dependency.
+ elsewhere in the text, it is stated that care for mental illness is not covered. It is listed among the exclusions along with drug addiction, chronic brain syndromes, and alcoholism.</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1092,7 +1093,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">**Node ID:** node-2
-**Similarity:** 0.03279569892473118
+**Similarity:** 0.03252247488101534
 **Text:** ITPEU Benefits &gt; Health &amp; Welfare Plan &gt; The Health and Welfare Plan &gt; Part III: Plan Document
 https://itpeubenefits.org/Health-Welfare-Plan/The-Health-and-Welfare-Plan/Part-III-Plan-Document[4/3/2024 1:33:35 PM]and the Union which provides for contributions by such Employer to the Health and Welfare Fund.
 1.05 Contributions.  The term "Contributions" shall mean the payments required to be made to the
@@ -1113,14 +1114,36 @@
 D. The term “Covered Child” shall include all persons specified in Subsections B and C hereof, and
 any step-child of an Employee for whom coverage was provided by the Plan prior to December 31,
 2010.
-**Metadata:** {'page_label': '2', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '2', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-**Node ID:** node-79
+**Node ID:** node-11
+**Similarity:** 0.016666666666666666
+**Text:** ITPEU Benefits &gt; Health &amp; Welfare Plan &gt; The Health and Welfare Plan &gt; Part III: Plan Document
+https://itpeubenefits.org/Health-Welfare-Plan/The-Health-and-Welfare-Plan/Part-III-Plan-Document[4/3/2024 1:33:35 PM]the Fund shall send written Notice to the Employees of the delinquent Employer, informing them that
+payment of their benefits, and the benefits of their covered family members, will be suspended in 30
+days due to lack of payment by their Employer unless the Employer pays off the delinquency within
+that 30 day period.   Such Notice shall state the actual date of such suspension.  Copies of suchNotice shall be sent to the Employer, and the applicable Contracting Officer and DOL Wage&amp; Hour
+Area Director. In addition, a separate letter, with copies to the Employer and affected Employees,
+will be sent by the Fund to the applicable Contracting Officer and Wage &amp; Hour Area Director,advising of the delinquency and resulting suspensions of benefits.
+ (b) Coverage of an eligible child terminates automatically when the child attains 26 years of age. 
+Coverage of a disabled child over 26ceases if the child is found to be no longer totally permanently
+disabled. Coverage of the spouse of an Employee terminates automatically as of the date of divorce
+or death.  Coverage of all Covered Family Members of an Employee terminates automatically as ofthe date of death of the Employee. 
+2.06 Time That Claim is Incurred. The Plan shall pay benefits for eligible Employees and their
+eligible Covered Family Members for all claims incurred during a period of eligibility.
+**Metadata:** {'page_label': '5', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
+</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+**Node ID:** node-83
 **Similarity:** 0.016666666666666666
 **Text:** 62. Charges for cosmetic corrective eye surgery.
 63. Treatment of a Mental Health Disorder.
@@ -1143,29 +1166,7 @@
 the FMLA and not by the provisions of the Plan.
 24.02 Extension of Coverage in the Event an Employee is FMLA Eligible .
 If an Employee is eligible for and elects to take Family and Medical Leave under the FMLA by reason
-**Metadata:** {'page_label': '34', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
-</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-**Node ID:** node-11
-**Similarity:** 0.01639344262295082
-**Text:** ITPEU Benefits &gt; Health &amp; Welfare Plan &gt; The Health and Welfare Plan &gt; Part III: Plan Document
-https://itpeubenefits.org/Health-Welfare-Plan/The-Health-and-Welfare-Plan/Part-III-Plan-Document[4/3/2024 1:33:35 PM]the Fund shall send written Notice to the Employees of the delinquent Employer, informing them that
-payment of their benefits, and the benefits of their covered family members, will be suspended in 30
-days due to lack of payment by their Employer unless the Employer pays off the delinquency within
-that 30 day period.   Such Notice shall state the actual date of such suspension.  Copies of suchNotice shall be sent to the Employer, and the applicable Contracting Officer and DOL Wage&amp; Hour
-Area Director. In addition, a separate letter, with copies to the Employer and affected Employees,
-will be sent by the Fund to the applicable Contracting Officer and Wage &amp; Hour Area Director,advising of the delinquency and resulting suspensions of benefits.
- (b) Coverage of an eligible child terminates automatically when the child attains 26 years of age. 
-Coverage of a disabled child over 26ceases if the child is found to be no longer totally permanently
-disabled. Coverage of the spouse of an Employee terminates automatically as of the date of divorce
-or death.  Coverage of all Covered Family Members of an Employee terminates automatically as ofthe date of death of the Employee. 
-2.06 Time That Claim is Incurred. The Plan shall pay benefits for eligible Employees and their
-eligible Covered Family Members for all claims incurred during a period of eligibility.
-**Metadata:** {'page_label': '5', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '34', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1214,7 +1215,7 @@
 Metastatic breast cancer that (a) has not been previously treated with systemic therapy, (b) iscurrently responsive to primary systemic therapy, or (c) has relapsed following response to first-
 line treatment;
 Newly diagnosed or responsive multiple myeloma, previously untreated disease, those in a
-**Metadata:** {'page_label': '10', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '10', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1256,16 +1257,22 @@
 Pre-certification RequirementAll transplant procedures must be pre-certified for type of transplant and be Medically Appropriate
 according to criteria established by the Plan.
 11.
-**Metadata:** {'page_label': '11', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '11', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-**Node ID:** node-74
+**Node ID:** node-78
 **Similarity:** 0.016129032258064516
-**Text:** Thisexclusion includes, but is not limited to, surgery to correct gynecomastia and breast augmentation
+**Text:** Ambulance transportation from the Hospital to the
+home is not covered.
+17. Services provided by a rest home, a home for the aged, a nursing home or any similar facility.
+18. Hearing Aids
+19. Cosmetic Surgery, reconstructive surgery, pharmacological services, nutritional regimens or
+other services for beautification, or treatment relating to the consequences of, or as a result of
+Cosmetic Surgery, unless treatment relating to such consequences is medically necessary. Thisexclusion includes, but is not limited to, surgery to correct gynecomastia and breast augmentation
 procedures, and otoplasties. Reduction mammoplasty and services for the correction of asymmetry,
 except when determined to be medically necessary, are not covered.
 • This exclusion does not apply to surgery to restore function if any body area has been altered by
@@ -1279,15 +1286,8 @@
 treatment of bulimia, anorexia or other eating disorders which consist primarily of behavior
 modification, diet and weight monitoring and education. Any services or supplies that involve weight
 reduction as the main method of treatment, including medical or psychiatric care or counseling.
-Weight loss programs, nutritional supplements, appetite suppressants, and supplies of a similarnature. Procedures including but not limited to liposuction, gastric balloons, jejunal bypasses, and
-wiring of the jaw.
-22. Surgical or medical treatment or study related to the modification of sex (transsexualism) or
-medical or surgical services or supplies for treatment of sexual dysfunctions or inadequacies,
-including treatment for impotency (except male organic erectile dysfunction).
-23. Transportation provided by other than a state licensed professional ambulance service, and
-ambulance services other than in a medical emergency.
-24.
-**Metadata:** {'page_label': '32', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+Weight loss programs, nutritional supplements, appetite suppressants, and supplies of a similarnature.
+**Metadata:** {'page_label': '32', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1314,32 +1314,30 @@
         <is>
           <t xml:space="preserve">**Node ID:** node-31
 **Similarity:** 0.03278688524590164
-**Text:** barium enema, flexible
-sigmoidoscopy, screening colonoscopy and CT
-colonography (as appropriate)
-- Aortic aneurysm screening (men)
-- Screenings during pregnancy (including but not
-limited to, hepatitis, asymptomatic bacteriuria,
-Rh incompatibility, syphilis, iron deficiency
-anemia, gonorrhea, chlamydia and HIV)
-- Intervention services (includes counseling and
-education):
-° Screening and counseling for obesity
-° Genetic counseling for women with a family
-history
-of breast or ovarian cancer
-° Behavioral counseling to promote a healthy diet
-° Primary care intervention to promote
-breastfeeding
-° Counseling related to aspirin use for the
-prevention
-of cardiovascular disease (does not include
-coverage
-for aspirin)
-° Screening and behavioral counseling related to
-tobacco use
-° Screening and behavioral counseling related to
-alcohol misuse 
+**Text:** ITPEU Benefits &gt; Health &amp; Welfare Plan &gt; The Health and Welfare Plan &gt; Part III: Plan Document
+https://itpeubenefits.org/Health-Welfare-Plan/The-Health-and-Welfare-Plan/Part-III-Plan-Document[4/3/2024 1:33:35 PM]care
+Age-appropriate screening tests including:
+- Newborn screenings
+- Vision screening
+- Hearing screening
+- Developmental and behavioral assessments
+- Oral health assessment
+- Screening for lead exposure
+- Hemoglobin or hematocrit (blood count)
+- Blood pressure
+- Height, weight and body mass index (BMI)\
+- Cholesterol and lipid level screening
+- Screening for depression
+- Screening and counseling for obesity
+- Behavioral counseling to promote a healthy diet
+- Screening for sexually transmitted infections
+- Pelvic exam and Pap test, including screening
+for
+cervical cancer
+-urinalysis
+-tuberculin tests
+-blood tests including hematocrit, hemoglobin
+and screening for sickle hemoglobinopathy
 Immunizations:
 - Hepatitis A
 - Hepatitis B
@@ -1348,35 +1346,34 @@
 - Influenza (flu)
 - Pneumococcal (pneumonia)
 - Human Papillomavirus (HPV)
+- Haemophilus Influenza type b (Hib)
+- Polio
 - Measles, Mumps, Rubella (MMR)
 - Meningococcal (meningitis)
-- Zoster (shingles)
-WOMEN'S HEALTH CARE
-**Metadata:** {'page_label': '13', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+- RotavirusPreventive physical exams
+Age-appropriate screening tests including:
+- Eye chart vision screening
+- Hearing screening
+- Cholesterol and lipid level screening
+- Blood pressure
+- Height, weight and BMI
+- Screening for depression
+- Diabetes screening
+- Prostate cancer screening including digital rectal
+exam and PSAtest
+- Breast cancer screening, including exam and
+mammography
+- Pelvic exam and Pap test,
+**Metadata:** {'page_label': '13', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-**Node ID:** node-29
+**Node ID:** node-30
 **Similarity:** 0.016666666666666666
-**Text:** 13.  Hospital Emergency Room Services : Charges for hospital emergency room care in
-connection with a “Medical Emergency”. For purposes of this Section 9.03(b)(18) the term “Medical
-Emergency” shall mean “a condition of recent onset and sufficient severity including, but not limited
-to severe pain, that would lead a prudent lay person, possessing an average knowledge of medicine
-and health, to believe that his or her condition, sickness or injury is of such a nature that failure toobtain immediate medical care could place his or her life in danger or cause serious harm”.
-14. Hearing Aids  - A hearing aid benefit shall be provided for Employees and their Dependents,
-whose contribution rates are $3.24 per hour and above. Your schedule of benefits specifies the
-maximum dollar amount for each Hearing Aid benefit that will be paid by the Fund under this
-Section. In no event shall the Fund pay more than such maximum amount for any Employee orDependent in any 24 month period. 
-(c) 
-Preventive Health Services
-Effective July 1, 2012, the Plan will pay 100% of the cost of all "Preventive Health
-Services" required by the Affordable Care Act when such services are provided by Network
-Healthcare Providers.  Such services include well-care baby visits, preventive care
-physical examinations for adults, screening tests for children and adults, and
-immunizations for children and adults.  Set forth below is an overview of the types of
+**Text:** Set forth below is an overview of the types of
 preventive services which are covered.  If you have questions as to whether a particular
 service is a "Preventive Health Service" required to be provided by the Plan without cost
 to you under the Affordable Care Act, please call the Claims Administrator at 1-877-331-
@@ -1384,14 +1381,14 @@
 CHILD PREVENTIVE CARE (Birth to 18 years)
 Preventive physical exams including well babyADULT PREVENTIVE CARE (19 years and
 older)
-**Metadata:** {'page_label': '12', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '12', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-**Node ID:** node-79
+**Node ID:** node-83
 **Similarity:** 0.016666666666666666
 **Text:** 62. Charges for cosmetic corrective eye surgery.
 63. Treatment of a Mental Health Disorder.
@@ -1414,7 +1411,7 @@
 the FMLA and not by the provisions of the Plan.
 24.02 Extension of Coverage in the Event an Employee is FMLA Eligible .
 If an Employee is eligible for and elects to take Family and Medical Leave under the FMLA by reason
-**Metadata:** {'page_label': '34', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '34', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1440,31 +1437,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">**Node ID:** node-35
-**Similarity:** 0.03306010928961749
-**Text:** • Routine care and/or examination of a newborn child.
-• Dietician services.• Maintenance therapy.• Dialysis treatment.
-• Purchase or rental of dialysis equipment.
-9.06 Medical Expenses Not Covered . No payment will be made for medical expenses incurred for
-which benefits are not payable under the General Exclusions and Limitations set forth at Section 23
-hereof or for private Hospital rooms unless such rooms are determined to be Medically Necessary orthe Hospital only offers private rooms.
-9.07 Pre-Certification
-(a)  Definition of Pre-Certification.  Pre-Certification is the process used to obtain authorization
-for a specific medical procedure before it is done, or to obtain authorization for admission to a
-hospital for medical treatment before such admission takes place.
-(b)  When Pre-Certification is Required.  Pre-Certification is required for any in-patient admission
-to a Hospital.  In addition, Pre-Certification is required for certain out-patient medical services.  A
-description of the out-patient services which require Pre-Certification under the Plan is set forth in
-the Appendix to the Summary Plan Description entitled " Out-Patient Services Requiring Pre-
-Certification ".
-**Metadata:** {'page_label': '15', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
-</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-**Node ID:** node-34
-**Similarity:** 0.03306010928961749
+**Similarity:** 0.03333333333333333
 **Text:** ITPEU Benefits &gt; Health &amp; Welfare Plan &gt; The Health and Welfare Plan &gt; Part III: Plan Document
 https://itpeubenefits.org/Health-Welfare-Plan/The-Health-and-Welfare-Plan/Part-III-Plan-Document[4/3/2024 1:33:35 PM]• A Member must be essentially confined at home.
 Covered Services:
@@ -1491,49 +1464,60 @@
 • Dietician services.• Maintenance therapy.• Dialysis treatment.
 • Purchase or rental of dialysis equipment.
 9.06 Medical Expenses Not Covered .
-**Metadata:** {'page_label': '15', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '15', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
+</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+**Node ID:** node-36
+**Similarity:** 0.03252247488101534
+**Text:** • Routine care and/or examination of a newborn child.
+• Dietician services.• Maintenance therapy.• Dialysis treatment.
+• Purchase or rental of dialysis equipment.
+9.06 Medical Expenses Not Covered . No payment will be made for medical expenses incurred for
+which benefits are not payable under the General Exclusions and Limitations set forth at Section 23
+hereof or for private Hospital rooms unless such rooms are determined to be Medically Necessary orthe Hospital only offers private rooms.
+9.07 Pre-Certification
+(a)  Definition of Pre-Certification.  Pre-Certification is the process used to obtain authorization
+for a specific medical procedure before it is done, or to obtain authorization for admission to a
+hospital for medical treatment before such admission takes place.
+(b)  When Pre-Certification is Required.  Pre-Certification is required for any in-patient admission
+to a Hospital.  In addition, Pre-Certification is required for certain out-patient medical services.  A
+description of the out-patient services which require Pre-Certification under the Plan is set forth in
+the Appendix to the Summary Plan Description entitled " Out-Patient Services Requiring Pre-
+Certification ".
+**Metadata:** {'page_label': '15', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-**Node ID:** node-26
-**Similarity:** 0.016129032258064516
+**Node ID:** node-77
+**Similarity:** 0.01639344262295082
 **Text:** ITPEU Benefits &gt; Health &amp; Welfare Plan &gt; The Health and Welfare Plan &gt; Part III: Plan Document
-https://itpeubenefits.org/Health-Welfare-Plan/The-Health-and-Welfare-Plan/Part-III-Plan-Document[4/3/2024 1:33:35 PM]complete or partial remission, or those in a responsive relapse.
-Homogenic/allogenic (other donor) or syngeneic hematopoietic stem cells whether harvested from
-bone marrow peripheral blood or from any other source, but only if required in the treatment
-of:                 
-aplastic anemia;
-acute leukemia;
-severe combined immunodeficiency exclusive of acquired immune defiency syndrome (AIDS);
-infantile malignant osteoporosis;
-chronic myelogenous leukemia;
-lymphoma (Wiscott-Aldrich syndrome);
-lysosomal storage disorder;
-myelodysplastic syndrome.
-“Donor Costs” means all costs, direct and indirect (including administration costs), incurred inconnection with:
-medical services required to remove the organ or tissue from either the donor’s or the self-
-donor’s body;
-preserving it; and
-transporting it to the site where the transplant is performed.
-In treatment of cancer, the term “transplant” includes any chemotherapy and related courses of
-treatment which the transplant supports.
-For purposes of this benefit, the term “transplant” does not include transplant of blood or blood
-derivatives (except hematopoietic stem cells) which will be considered as non-transplant related
-under the terms of the Plan.
-“Facility Transplant” means all Medically Necessary services and supplies provided by a health care
-facility in connection with a covered transplant except donor costs and anti-rejection drugs.
-“Medically Appropriate” means the recipient or self-donor meets the criteria for a transplant
-established by the Plan.
-“Professional Provider Transplant Services” means all Medically Necessary services and supplies
-provided by a professional provider in connection with a covered transplant except donor costs and
-anti-rejection drugs.
-Pre-certification RequirementAll transplant procedures must be pre-certified for type of transplant and be Medically Appropriate
-according to criteria established by the Plan.
-11.
-**Metadata:** {'page_label': '11', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+https://itpeubenefits.org/Health-Welfare-Plan/The-Health-and-Welfare-Plan/Part-III-Plan-Document[4/3/2024 1:33:35 PM]chairs, geri chairs, hip chairs, seat lifts (mechanical or motorized), patient lifts (mechanical or
+motorized – manual hydraulic lifts are covered if the patient is two-person transfer), vitrectomy
+chairs, auto tilt chairs and fixtures to real property (ceiling lifts, wheelchair ramps, automobile lift
+customizations);
+Air quality items:  room humidifiers, vaporizers, air purifiers, electrostatic machines;
+Blood/injection related items:  blood pressure cuffs, centrifuges, nova pens, needle-less injectors;
+Pumps: back packs for portable pumps;
+Dialysis Machines;
+Other equipment:  heat lamps, heating pads, cryounits, ultraviolet cabinets, sheepskin pads and
+boots, postural drainage board, AC/DC adapters, Enuresis alarms, magnetic equipment, scales(baby and adult), stair gliders, elevators, saunas, exercise equipment, diathermy machines.
+16. Custodial Care, domiciliary care, rest cures, or travel expenses even if recommended for health
+reasons by a Physician. Inpatient room and board charges in connection with a Hospital or Skilled
+Nursing Facility stay primarily for environmental change, Physical Therapy or treatment of chronic
+pain, except as specifically stated as Covered Medical Expenses. Transportation to another area for
+medical care is excluded except when Medically Necessary for a Participant to be moved byambulance from one Hospital to another Hospital. Ambulance transportation from the Hospital to the
+home is not covered.
+17. Services provided by a rest home, a home for the aged, a nursing home or any similar facility.
+18. Hearing Aids
+19.
+**Metadata:** {'page_label': '32', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1558,7 +1542,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">**Node ID:** node-45
+          <t xml:space="preserve">**Node ID:** node-47
 **Similarity:** 0.03279569892473118
 **Text:** ITPEU Benefits &gt; Health &amp; Welfare Plan &gt; The Health and Welfare Plan &gt; Part III: Plan Document
 https://itpeubenefits.org/Health-Welfare-Plan/The-Health-and-Welfare-Plan/Part-III-Plan-Document[4/3/2024 1:33:35 PM](c) A spouse is eligible, at his or her own expense, for continuation of medical, vision, dental and
@@ -1579,9 +1563,8 @@
 benefits:
 (1) Termination of Employment;(2) Death of the Employee;
 (3) Divorce or Legal Separation;
-(4) Loss of Covered Child Status;(5) Reduction in weekly work schedule resulting in a drop to lower Benefit Classification Level.(6) Exhaustion of leave under the Federal Family and Medical Leave Act without a return to
-employment.
-**Metadata:** {'page_label': '20', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+(4) Loss of Covered Child Status;(5) Reduction in weekly work schedule resulting in a drop to lower Benefit Classification Level.
+**Metadata:** {'page_label': '20', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1589,7 +1572,7 @@
         <is>
           <t xml:space="preserve">
 **Node ID:** node-20
-**Similarity:** 0.03278688524590164
+**Similarity:** 0.03279569892473118
 **Text:** 8.02 Amount of Benefit. The amount of the weekly benefit payable hereunder shall be the benefit
 for each Classification Level specified in the Schedule of Benefits.8.03 Waiting Period. Eligibility for weekly accident and sickness benefit commences on the first day
 of disability if the Employee is disabled as a result of an accident and on the fourth day of disability if
@@ -1611,36 +1594,37 @@
 the Fund. Nor does it apply to any medical expenses specifically excluded from coverage in other
 portions of this Plan Document.
 9.02 Medical Benefits.
-**Metadata:** {'page_label': '8', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '8', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-**Node ID:** node-15
-**Similarity:** 0.016666666666666666
-**Text:** Such payment shall constitute a full discharge of the obligations of the Board ofTrustees to the extent thereof.
- 3.07 Prohibited Beneficiaries. A Participant may not designate a management representative or
-supervisory employee of his Employer as his beneficiary unless such beneficiary is related to the
-Participant. The Trustees, in their sole discretion, shall have authority to determine whether or not a
-sufficient relationship exists between such a beneficiary and the Participant in order to warrantpayment of death benefits to such beneficiary.
-SECTION 4. BENEFIT CLASSIFICATION
-4.01   Benefit Classification. The Fund shall establish four (4) levels of benefit classification. These
-benefit levels shall be based on the average number of hours an Employee works per week for which
-contributions are received. In order to determine an Employee’s average number of hours worked
-per week the Fund shall review the number of hours worked by such Employee in the prior 90 dayperiod. The highest level of benefits shall be paid to Employees and their Covered Family Members
-who are in Level IV with the lowest level of benefits being available to Employees and their Covered
-Family Members who are in Level I.
-4.02 Classification Levels. The four levels of benefits provided by the Plan shall be classified as
-follows:Classification                                  Weekly Hours Worked       I                                             Less than 12 hours per week
-       II                                            12 through 19 hours per week
-       III                                           20 through 29 hours per week       IV                                           30 hours or more per week
-SECTION 5. DEATH BENEFITS
-5.01 Benefits in Event of Death of Employee.  Upon receipt of due proof at the principal office of
-the Fund of the death of an Employee from any cause which occurs during a period of his or her
-eligibility or within 31 days after the termination of such eligibility, the Fund shall pay to the
-**Metadata:** {'page_label': '6', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Node ID:** node-83
+**Similarity:** 0.01639344262295082
+**Text:** 62. Charges for cosmetic corrective eye surgery.
+63. Treatment of a Mental Health Disorder.
+SECTION 24. FAMILY AND MEDICAL LEAVE
+24.01 Eligibility for Family and Medical Leave . Eligibility for Family and Medical Leave is
+governed by the Federal Family and Medical Leave Act (“FMLA”) which, in general, provides that
+eligible employees are entitled to up to twelve (12) weeks of unpaid leave for the following
+circumstances:
+The birth of a child of the Employee in order to care for such child;
+The placement of a child with the Employee for adoption or foster care;
+Caring for a spouse, child or parent who has a serious health condition;
+A serious health condition of the Employee which renders him or her unable to perform thefunctions of the position of such Employee.
+Effective February 28, 2008 the FMLA also provides that eligible Employees who are a spouse, son,daughter, parent or next of kin, are entitled to up to 26 workweeks of unpaid leave to care for a
+"member of the Armed Forces, including a member of the National Guard or Reserves, who is
+undergoing medical treatment, recuperation, or therapy, is otherwise in outpatient status, or isotherwise on the temporary disability retired list, for a serious injury or illness."
+Effective October 28, 2009, the FMLA also provides the eligible Employees whose spouse, son,
+daughter, or parent are on active duty, or call to active status as a member of the National Guard or
+Reserve in support of a contingency operation, are entitled up to twelve (12) weeks of unpaid leavefor "qualifying exigencies" arising out of such active duty or call to active duty.
+A determination as to whether an Employee is eligible for Family and Medical Leave is governed by
+the FMLA and not by the provisions of the Plan.
+24.02 Extension of Coverage in the Event an Employee is FMLA Eligible .
+If an Employee is eligible for and elects to take Family and Medical Leave under the FMLA by reason
+**Metadata:** {'page_label': '34', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1688,47 +1672,16 @@
 and any "Covered Family Member" as defined at Section 1.06 hereof.
 1.22 Physician. The term "Physician" means a licensed medical practitioner, including a clinical
 psychologist, who is practicing within the scope of his or her license and who is licensed to prescribe
-and administer drugs or to perform surgery. It will also include any other licensed medical
-practitioner whose services are required to be covered by law in the locality where he or shepractices provided he or she is:
-Operating within the scope of his or her license; and
-Performing a service for which benefits are provided under this Plan when performed by aPhysician.
-1.23 Plan.
-**Metadata:** {'page_label': '3', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+and administer drugs or to perform surgery.
+**Metadata:** {'page_label': '3', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-**Node ID:** node-33
-**Similarity:** 0.03278688524590164
-**Text:** This benefit is available only if the patient requires a Physician’s continuous care and 24-hour-a-day
-nursing care. Benefits will not be provided when:
-• A Member reaches the maximum level of recovery possible and no longer requires other than
-routine care;
-• Care is primarily Custodial Care, not requiring definitive medical or 24-hour-a-day nursing service;• Care is for mental illness including drug addiction, chronic brain syndromes and alcoholism, and no
-specific medical conditions exist that require care in a Skilled Nursing Facility;
-• A Member is undergoing senile deterioration, mental deficiency or retardation, and has no medical
-condition requiring care;
-• The care rendered is for other than Skilled Convalescent Care.
-9.05 Home Health Care Services -Home Health Care provides a program for the Member’s care
-and treatment in the home. The program consists of required intermittent skilled care, which may
-include observation, evaluation, teaching and nursing services consistent with the diagnosis,established and approved in writing by the Member’s attending Physician. Services may be
-performed by either Network or Out-of-Network Providers.
-Some special conditions apply:
-• The Physician’s statement and recommended program must be pre-certified.• Claims will be reviewed to verify that services consist of skilled care that is medically consistent
-with the diagnosis.
-Note: Covered Services available under Home Health Care do NOT reduce Outpatient benefits
-available under the Physical Therapy section shown in this Plan.
-**Metadata:** {'page_label': '14', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
-</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 **Node ID:** node-5
-**Similarity:** 0.016666666666666666
+**Similarity:** 0.03279569892473118
 **Text:** ITPEU Benefits &gt; Health &amp; Welfare Plan &gt; The Health and Welfare Plan &gt; Part III: Plan Document
 https://itpeubenefits.org/Health-Welfare-Plan/The-Health-and-Welfare-Plan/Part-III-Plan-Document[4/3/2024 1:33:35 PM]for diagnosis and major surgery and which is not primarily a clinic, nursing, rest or convalescence
 home, or similar establishment. A psychiatric hospital duly licensed by the State in question shall be
@@ -1751,7 +1704,34 @@
 Benefits for such Participant.
  1.17 Mental Health Disorder. The term “Mental Health Disorder” includes mental disorders,
 mental illnesses, psychiatric illnesses, mental conditions, and psychiatric conditions.
-**Metadata:** {'page_label': '3', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '3', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
+</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+**Node ID:** node-34
+**Similarity:** 0.03278688524590164
+**Text:** This benefit is available only if the patient requires a Physician’s continuous care and 24-hour-a-day
+nursing care. Benefits will not be provided when:
+• A Member reaches the maximum level of recovery possible and no longer requires other than
+routine care;
+• Care is primarily Custodial Care, not requiring definitive medical or 24-hour-a-day nursing service;• Care is for mental illness including drug addiction, chronic brain syndromes and alcoholism, and no
+specific medical conditions exist that require care in a Skilled Nursing Facility;
+• A Member is undergoing senile deterioration, mental deficiency or retardation, and has no medical
+condition requiring care;
+• The care rendered is for other than Skilled Convalescent Care.
+9.05 Home Health Care Services -Home Health Care provides a program for the Member’s care
+and treatment in the home. The program consists of required intermittent skilled care, which may
+include observation, evaluation, teaching and nursing services consistent with the diagnosis,established and approved in writing by the Member’s attending Physician. Services may be
+performed by either Network or Out-of-Network Providers.
+Some special conditions apply:
+• The Physician’s statement and recommended program must be pre-certified.• Claims will be reviewed to verify that services consist of skilled care that is medically consistent
+with the diagnosis.
+Note: Covered Services available under Home Health Care do NOT reduce Outpatient benefits
+available under the Physical Therapy section shown in this Plan.
+**Metadata:** {'page_label': '14', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1805,10 +1785,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>3.966666666666666</v>
+        <v>5.416666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -1835,10 +1815,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6611111111111111</v>
+        <v>0.9027777777777777</v>
       </c>
     </row>
   </sheetData>
@@ -1917,8 +1897,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>According to the information provided, a "Covered Family Member" includes any children of an employee who are incapable of self-support due to physical or developmental disabilities, and who are dependent on the employee for support. This definition applies to children up to the age of 26, however, there is an exception for those who became covered before turning 26, and their incapacity began before this milestone. 
-Since your daughter is 28, she wouldn't be considered a "Covered Family Member" based on the information provided.</t>
+          <t>According to the information provided, your disabled daughter would only be covered if she is under the age of 26. Coverage of a disabled child over 26 only continues if they are found to still be totally permanently disabled, and proof of this may be required by the Board of Trustees.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -1926,7 +1905,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user's query about coverage for their disabled daughter under a specific health and welfare plan. However, it incorrectly concludes that the daughter would not be considered a "Covered Family Member" due to her age, contradicting the reference answer which states that a daughter who is incapable of self-support due to a disability and depends on the parent for support can remain covered if her incapacity began before the age of 26. This significant mistake in interpreting the eligibility criteria lowers the score.</t>
+          <t>The generated answer is relevant to the user's query about coverage for their disabled daughter but contains inaccuracies regarding the age limit and conditions for coverage as specified in the reference answer. The reference answer states that the daughter can be covered if her incapacity began before the age of 26, not that she must be under 26 to be covered.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -1951,15 +1930,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yes, treatment for lymphoma is covered. According to the information provided, both Hodgkin's lymphoma and non-Hodgkin's lymphoma are eligible for coverage. Chemotherapy and related courses of treatment for transplants supporting the lymphoma treatment are also included. However, the treatment must be medically appropriate and meet the criteria established by the Plan.</t>
+          <t>Yes, treatment for some types of lymphoma appears to be covered. According to the information provided, Hodgkin's lymphoma and Non-Hodgkin's lymphoma are both eligible for coverage if they fall into specific stages. Additionally, lymphoma is also covered in the context of homogenic/allogenic or syngeneic hematopoietic stem cell transplants, provided certain conditions are met.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant and correct, closely aligning with the reference answer. It accurately states that lymphoma treatment is covered, including chemotherapy and transplants, with the condition that treatments must be medically appropriate and meet the Plan's criteria. The slight deduction is due to the omission of specific details about the type of transplants covered (e.g., autologous bone marrow transplants) and the specific conditions under which they are covered, which were mentioned in the reference answer. However, the essence of the coverage is well captured.</t>
+          <t>The generated answer is relevant and mostly correct, aligning well with the reference answer's information about coverage for lymphoma treatment under a specific health plan. It correctly mentions that both Hodgkin's and Non-Hodgkin's lymphoma treatments are covered if they meet certain criteria, and it accurately refers to stem cell transplants as a covered treatment, though it uses different terminology ("homogenic/allogenic or syngeneic hematopoietic stem cell transplants" instead of "autologous bone marrow transplants"). However, it lacks the specific detail provided in the reference answer about the stages of lymphoma covered and does not mention the requirement for prior approval, which prevents a perfect score.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -1984,15 +1963,15 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Yes. Immunizations for children are covered by the Plan. This includes the flu vaccine.</t>
+          <t>According to the ITPEU Health and Welfare Plan, immunizations such as the flu vaccine are covered. Under the 'Child Preventive Care' section for babies and children up to 18 years old, it lists immunizations as part of the coverage. Although it doesn't specifically mention the flu vaccine, it does list Influenza (flu) under the given immunizations.</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and correct, providing a clear and concise response to the user's query about the coverage of their son's flu vaccine. It lacks the detailed explanation found in the reference answer regarding the ITPEU Health and Welfare Plan and the Affordable Care Act, but it directly addresses the main concern.</t>
+          <t>The generated answer is relevant and mostly correct, providing specific information about the coverage of immunizations under the ITPEU Health and Welfare Plan, which includes the flu vaccine for children. It slightly lacks the explicit confirmation that the flu vaccine is covered as part of "Preventive Health Services" and the mention of 100% cost coverage provided by the reference answer, but it still accurately addresses the user's query.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -2017,7 +1996,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Home dialysis treatment is not covered in your plan. According to the information provided, dialysis treatment and the purchase or rental of dialysis equipment are excluded.</t>
+          <t>Home dialysis treatment is not covered in your plan. Both the rental and purchase of dialysis equipment are listed among the plan's exclusions.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -2025,7 +2004,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and fully correct, providing a clear and concise response to the user query based on the reference answer.</t>
+          <t>The generated answer is relevant and fully correct, providing a concise summary of the key points from the reference answer regarding the coverage of home dialysis treatment and equipment under the plan.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -2050,15 +2029,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>According to the ITPEU Health and Welfare Plan, a reduction in weekly work hours to a lower Benefit Classification Level will result in a loss of eligibility for medical, vision and dental care benefits. Your family and you may maintain these benefits at your own expense, but they will be at the Benefit Classification Level corresponding to your new work schedule.</t>
+          <t>According to the ITPEU Health and Welfare Plan, a reduction in an employee's weekly work schedule resulting in a drop to a lower Benefit Classification Level would mean that the employee and their Covered Family Members can maintain their medical, vision, dental and prescription drug benefits at the Benefit Classification Level they held previously. So, if your work schedule has changed and you're now working 10 hours less per week and that has resulted in a drop to a lower Benefit Classification Level, your family's coverage may change. You and your family members can continue to maintain your benefits at the previous level, but you would have to expense them.</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and mostly correct, addressing the impact of reduced work hours on benefit eligibility under the ITPEU Health and Welfare Plan and the option to maintain benefits at one's own expense. However, it slightly misrepresents the specifics about maintaining the "same level" of benefits as stated in the reference answer, implying a downgrade to benefits corresponding to the new work schedule rather than maintaining the previous level.</t>
+          <t>The generated answer is highly relevant and correct in relation to the user query. It accurately explains the impact of a reduced work schedule on benefit coverage under the ITPEU Health and Welfare Plan, mirroring the essential information provided in the reference answer. It clearly states that despite a reduction in hours, the employee and their family can maintain their previous level of benefits if they choose to cover the necessary expenses.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -2083,15 +2062,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Although the plan refers to mental health disorders, it appears that treatment for mental illness is not covered. According to the information given, mental illness including drug addiction, chronic brain syndromes, and alcoholism are explicitly excluded. The only provision for coverage is when specific medical conditions require care in a skilled nursing facility.</t>
+          <t>According to the defined terms in the provided context, the plan does not cover treatment for mental illness.
+The term "Mental Health Disorder" includes mental disorders, mental illnesses, and psychiatric conditions but specifically excludes any conditions related to drug, alcohol, or chemical dependency.
+ elsewhere in the text, it is stated that care for mental illness is not covered. It is listed among the exclusions along with drug addiction, chronic brain syndromes, and alcoholism.</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and mostly correct, aligning well with the reference answer by stating that treatment for mental illness is not covered under the plan. It adds specific examples of excluded conditions and mentions a provision for coverage in a skilled nursing facility, which, while not mentioned in the reference, does not contradict it and provides useful context.</t>
+          <t>The generated answer is relevant and fully correct, providing a clear and detailed explanation that aligns with the reference answer. It expands on the definition of "Mental Health Disorder" and confirms that treatment for mental illness is not covered, matching the information given in the reference answer.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -2172,16 +2153,15 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>According to the information provided, a "Covered Family Member" includes any children of an employee who are incapable of self-support due to physical or developmental disabilities, and who are dependent on the employee for support. This definition applies to children up to the age of 26, however, there is an exception for those who became covered before turning 26, and their incapacity began before this milestone. 
-Since your daughter is 28, she wouldn't be considered a "Covered Family Member" based on the information provided.</t>
+          <t>According to the information provided, your disabled daughter would only be covered if she is under the age of 26. Coverage of a disabled child over 26 only continues if they are found to still be totally permanently disabled, and proof of this may be required by the Board of Trustees.</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The score is 0.80 because the actual output incorrectly suggests that a 28-year-old daughter would not qualify as a 'Covered Family Member,' overlooking the retrieval context information that children with disabilities are covered regardless of age if the disability began before they reached 26.</t>
+          <t>The score is 0.67 because the actual output inaccurately claims that a disabled daughter would only be covered if she is under the age of 26, contradicting the retrieval context which clearly states that any child incapable of self-support due to disability and dependent on the employee for support is considered a covered family member at any age, as long as the incapacity began before the age of 26.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -2206,15 +2186,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yes, treatment for lymphoma is covered. According to the information provided, both Hodgkin's lymphoma and non-Hodgkin's lymphoma are eligible for coverage. Chemotherapy and related courses of treatment for transplants supporting the lymphoma treatment are also included. However, the treatment must be medically appropriate and meet the criteria established by the Plan.</t>
+          <t>Yes, treatment for some types of lymphoma appears to be covered. According to the information provided, Hodgkin's lymphoma and Non-Hodgkin's lymphoma are both eligible for coverage if they fall into specific stages. Additionally, lymphoma is also covered in the context of homogenic/allogenic or syngeneic hematopoietic stem cell transplants, provided certain conditions are met.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>The score is 1.00 because the actual output perfectly aligns with the retrieval context, showcasing a flawless representation of the provided information without any contradictions. Great job on maintaining accuracy and reliability!</t>
+          <t>The score is 0.75 because the actual output inaccurately claims certain types of hematopoietic stem cell transplants (homogenic/allogenic or syngeneic) are covered, despite the retrieval context only specifying that stem cells, not their specific transplant types, are excluded from the non-coverage of blood or blood derivatives, leading to a contradiction.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -2239,7 +2219,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Yes. Immunizations for children are covered by the Plan. This includes the flu vaccine.</t>
+          <t>According to the ITPEU Health and Welfare Plan, immunizations such as the flu vaccine are covered. Under the 'Child Preventive Care' section for babies and children up to 18 years old, it lists immunizations as part of the coverage. Although it doesn't specifically mention the flu vaccine, it does list Influenza (flu) under the given immunizations.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -2247,7 +2227,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>The score is 1.00 because there are no contradictions, indicating a perfect alignment between the actual output and the retrieval context. Great job maintaining accuracy and consistency!</t>
+          <t>The score is 1.00 because there are no contradictions, indicating a perfect alignment between the actual output and the retrieval context. Great job on maintaining accuracy!</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -2272,15 +2252,15 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Home dialysis treatment is not covered in your plan. According to the information provided, dialysis treatment and the purchase or rental of dialysis equipment are excluded.</t>
+          <t>Home dialysis treatment is not covered in your plan. Both the rental and purchase of dialysis equipment are listed among the plan's exclusions.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>The score is 0.00 because the actual output incorrectly states that home dialysis treatment, including both the treatment itself and the purchase or rental of dialysis equipment, is not covered by the plan. This directly contradicts the retrieval context which clearly states that dialysis treatment and the purchase or rental of dialysis equipment are indeed covered services.</t>
+          <t>The score is 1.00 because the actual output perfectly aligns with the information presented in the retrieval context, with no contradictions identified.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -2305,15 +2285,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>According to the ITPEU Health and Welfare Plan, a reduction in weekly work hours to a lower Benefit Classification Level will result in a loss of eligibility for medical, vision and dental care benefits. Your family and you may maintain these benefits at your own expense, but they will be at the Benefit Classification Level corresponding to your new work schedule.</t>
+          <t>According to the ITPEU Health and Welfare Plan, a reduction in an employee's weekly work schedule resulting in a drop to a lower Benefit Classification Level would mean that the employee and their Covered Family Members can maintain their medical, vision, dental and prescription drug benefits at the Benefit Classification Level they held previously. So, if your work schedule has changed and you're now working 10 hours less per week and that has resulted in a drop to a lower Benefit Classification Level, your family's coverage may change. You and your family members can continue to maintain your benefits at the previous level, but you would have to expense them.</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>The score is 0.67 because the actual output incorrectly suggests that reducing weekly work hours will lead to a loss of eligibility for benefits, despite the retrieval context clearly indicating that employees and their covered family members can continue their benefits at their current level at their own expense if work hours are reduced.</t>
+          <t>The score is 1.00 because there are no contradictions noted, indicating a perfect alignment between the actual output and the retrieval context. Great job on maintaining accuracy and faithfulness!</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -2338,15 +2318,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Although the plan refers to mental health disorders, it appears that treatment for mental illness is not covered. According to the information given, mental illness including drug addiction, chronic brain syndromes, and alcoholism are explicitly excluded. The only provision for coverage is when specific medical conditions require care in a skilled nursing facility.</t>
+          <t>According to the defined terms in the provided context, the plan does not cover treatment for mental illness.
+The term "Mental Health Disorder" includes mental disorders, mental illnesses, and psychiatric conditions but specifically excludes any conditions related to drug, alcohol, or chemical dependency.
+ elsewhere in the text, it is stated that care for mental illness is not covered. It is listed among the exclusions along with drug addiction, chronic brain syndromes, and alcoholism.</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>The score is 0.50 because the actual output inaccurately includes mental illness, drug addiction, chronic brain syndromes, and alcoholism as conditions explicitly excluded from coverage, which contradicts the retrieval context that specifies only conditions related to drug, alcohol, or chemical dependency are not categorized under 'Mental Health Disorder', without excluding treatment for mental illness or specifically mentioning chronic brain syndromes or alcoholism.</t>
+          <t>The score is 1.00 because the actual output perfectly aligns with the information provided in the retrieval context, showcasing high faithfulness without any contradictions. Great job on maintaining accuracy and consistency!</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -2389,10 +2371,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>33403</v>
+        <v>35045</v>
       </c>
       <c r="B2" t="n">
-        <v>10633</v>
+        <v>10745</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
